--- a/종이컵비행기.xlsx
+++ b/종이컵비행기.xlsx
@@ -12,15 +12,20 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="7500"/>
   </bookViews>
   <sheets>
-    <sheet name="분석용 데이터" sheetId="1" r:id="rId1"/>
-    <sheet name="원본 데이터" sheetId="5" r:id="rId2"/>
+    <sheet name="머신러닝용" sheetId="6" r:id="rId1"/>
+    <sheet name="분석용 데이터" sheetId="1" r:id="rId2"/>
+    <sheet name="원본 데이터" sheetId="5" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">머신러닝용!$A$1:$F$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'분석용 데이터'!$A$1:$I$126</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="49">
   <si>
     <t>모둠</t>
   </si>
@@ -145,9 +150,6 @@
     <t>No24</t>
   </si>
   <si>
-    <t>평균시간</t>
-  </si>
-  <si>
     <t>평균거리</t>
   </si>
   <si>
@@ -166,11 +168,22 @@
   <si>
     <t>No29</t>
   </si>
+  <si>
+    <t>평균시간</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>성능</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="0.0"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -757,12 +770,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1085,11 +1101,2915 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G126"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I118" sqref="I118"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>6.1</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>32.5</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4.8956599999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5.9</v>
+      </c>
+      <c r="B3">
+        <v>8.5</v>
+      </c>
+      <c r="C3">
+        <v>11.9</v>
+      </c>
+      <c r="D3">
+        <v>21.71</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5.9913360000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5.2</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>9.5</v>
+      </c>
+      <c r="D4">
+        <v>15.21</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2">
+        <v>6.2748000000000008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>7.2</v>
+      </c>
+      <c r="C5">
+        <v>7.3</v>
+      </c>
+      <c r="D5">
+        <v>7.18</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6.7095599999999989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C6">
+        <v>4.5</v>
+      </c>
+      <c r="D6">
+        <v>3.11</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2">
+        <v>8.2857600000000016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B7">
+        <v>7.25</v>
+      </c>
+      <c r="C7">
+        <v>6.9</v>
+      </c>
+      <c r="D7">
+        <v>7.15</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>14.5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2.3813999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B8">
+        <v>7.25</v>
+      </c>
+      <c r="C8">
+        <v>6.9</v>
+      </c>
+      <c r="D8">
+        <v>7.15</v>
+      </c>
+      <c r="E8">
+        <v>2.5</v>
+      </c>
+      <c r="F8">
+        <v>14.5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2.2153559999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B9">
+        <v>7.25</v>
+      </c>
+      <c r="C9">
+        <v>6.9</v>
+      </c>
+      <c r="D9">
+        <v>7.15</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>14.5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3.6457120000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B10">
+        <v>7.25</v>
+      </c>
+      <c r="C10">
+        <v>6.9</v>
+      </c>
+      <c r="D10">
+        <v>7.15</v>
+      </c>
+      <c r="E10">
+        <v>3.5</v>
+      </c>
+      <c r="F10">
+        <v>14.5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2.5958400000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B11">
+        <v>7.25</v>
+      </c>
+      <c r="C11">
+        <v>6.9</v>
+      </c>
+      <c r="D11">
+        <v>7.15</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>14.5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3.6372800000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3.5</v>
+      </c>
+      <c r="B12">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C12">
+        <v>4.5</v>
+      </c>
+      <c r="D12">
+        <v>3.1</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>17</v>
+      </c>
+      <c r="G12" s="2">
+        <v>6.6353600000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>7.3</v>
+      </c>
+      <c r="D13">
+        <v>6.99</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>17</v>
+      </c>
+      <c r="G13" s="2">
+        <v>6.6278400000000017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>5.2</v>
+      </c>
+      <c r="B14">
+        <v>7.5</v>
+      </c>
+      <c r="C14">
+        <v>9.1</v>
+      </c>
+      <c r="D14">
+        <v>11.22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>17</v>
+      </c>
+      <c r="G14" s="2">
+        <v>9.3240000000000016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>6.2</v>
+      </c>
+      <c r="B15">
+        <v>8.9</v>
+      </c>
+      <c r="C15">
+        <v>14.8</v>
+      </c>
+      <c r="D15">
+        <v>30.1</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>17</v>
+      </c>
+      <c r="G15" s="2">
+        <v>4.786319999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>10.3</v>
+      </c>
+      <c r="B16">
+        <v>12.6</v>
+      </c>
+      <c r="C16">
+        <v>5.8</v>
+      </c>
+      <c r="D16">
+        <v>17.12</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>17</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3.0748759999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>6.08</v>
+      </c>
+      <c r="B17">
+        <v>7.3</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>15.26</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>45</v>
+      </c>
+      <c r="G17" s="2">
+        <v>6.3422159999999987</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>6.08</v>
+      </c>
+      <c r="B18">
+        <v>7.5</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>18.440000000000001</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>45</v>
+      </c>
+      <c r="G18" s="2">
+        <v>6.0737600000000009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>6.08</v>
+      </c>
+      <c r="B19">
+        <v>7.6</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>21.59</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>45</v>
+      </c>
+      <c r="G19" s="2">
+        <v>8.0211240000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>6.08</v>
+      </c>
+      <c r="B20">
+        <v>8.15</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>25.24</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>45</v>
+      </c>
+      <c r="G20" s="2">
+        <v>6.6801680000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>6.08</v>
+      </c>
+      <c r="B21">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>28.42</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>45</v>
+      </c>
+      <c r="G21" s="2">
+        <v>7.0645679999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>8.4</v>
+      </c>
+      <c r="C22">
+        <v>17.2</v>
+      </c>
+      <c r="D22">
+        <v>32.1</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>26.2</v>
+      </c>
+      <c r="G22" s="2">
+        <v>9.4115279999999988</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>8.4</v>
+      </c>
+      <c r="C23">
+        <v>14.9</v>
+      </c>
+      <c r="D23">
+        <v>30.03</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>22.4</v>
+      </c>
+      <c r="G23" s="2">
+        <v>7.9241120000000027</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>5.8</v>
+      </c>
+      <c r="B24">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C24">
+        <v>13.6</v>
+      </c>
+      <c r="D24">
+        <v>25.62</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>25.6</v>
+      </c>
+      <c r="G24" s="2">
+        <v>9.32376</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>8.5</v>
+      </c>
+      <c r="C25">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D25">
+        <v>20.85</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>26.3</v>
+      </c>
+      <c r="G25" s="2">
+        <v>6.5051999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>7.8</v>
+      </c>
+      <c r="C26">
+        <v>6.2</v>
+      </c>
+      <c r="D26">
+        <v>13.5</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>24.2</v>
+      </c>
+      <c r="G26" s="2">
+        <v>6.0736480000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>32</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>15</v>
+      </c>
+      <c r="G27" s="2">
+        <v>5.8433759999999992</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>30</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>15</v>
+      </c>
+      <c r="G28" s="2">
+        <v>5.8791840000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>26</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>15</v>
+      </c>
+      <c r="G29" s="2">
+        <v>5.0459039999999993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>22</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>15</v>
+      </c>
+      <c r="G30" s="2">
+        <v>5.8677600000000014</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>15</v>
+      </c>
+      <c r="G31" s="2">
+        <v>9.8259200000000035</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B32">
+        <v>7.2</v>
+      </c>
+      <c r="C32">
+        <v>7.2</v>
+      </c>
+      <c r="D32">
+        <v>7.16</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>37</v>
+      </c>
+      <c r="G32" s="2">
+        <v>7.5974760000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B33">
+        <v>7.2</v>
+      </c>
+      <c r="C33">
+        <v>7.8</v>
+      </c>
+      <c r="D33">
+        <v>14.42</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>37</v>
+      </c>
+      <c r="G33" s="2">
+        <v>8.555688</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B34">
+        <v>7.2</v>
+      </c>
+      <c r="C34">
+        <v>8.4</v>
+      </c>
+      <c r="D34">
+        <v>21.83</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>37</v>
+      </c>
+      <c r="G34" s="2">
+        <v>10.863359999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B35">
+        <v>7.2</v>
+      </c>
+      <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>29.07</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>37</v>
+      </c>
+      <c r="G35" s="2">
+        <v>7.4779920000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B36">
+        <v>7.2</v>
+      </c>
+      <c r="C36">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D36">
+        <v>36.43</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>37</v>
+      </c>
+      <c r="G36" s="2">
+        <v>5.4612799999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>3.6</v>
+      </c>
+      <c r="B37">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C37">
+        <v>4.5</v>
+      </c>
+      <c r="D37">
+        <v>3.11</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>12</v>
+      </c>
+      <c r="G37" s="2">
+        <v>5.7848959999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B38">
+        <v>7.2</v>
+      </c>
+      <c r="C38">
+        <v>7.3</v>
+      </c>
+      <c r="D38">
+        <v>7.54</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>12</v>
+      </c>
+      <c r="G38" s="2">
+        <v>5.0850080000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C39">
+        <v>10.7</v>
+      </c>
+      <c r="D39">
+        <v>20.93</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>12</v>
+      </c>
+      <c r="G39" s="2">
+        <v>4.2671359999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C40">
+        <v>13.7</v>
+      </c>
+      <c r="D40">
+        <v>25.82</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>12</v>
+      </c>
+      <c r="G40" s="2">
+        <v>4.4908599999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C41">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="D41">
+        <v>32.11</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>12</v>
+      </c>
+      <c r="G41" s="2">
+        <v>5.8139399999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>7.2</v>
+      </c>
+      <c r="C42">
+        <v>7.3</v>
+      </c>
+      <c r="D42">
+        <v>7.63</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>25</v>
+      </c>
+      <c r="G42" s="2">
+        <v>7.9260480000000006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>7.2</v>
+      </c>
+      <c r="C43">
+        <v>7.3</v>
+      </c>
+      <c r="D43">
+        <v>9.39</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>25</v>
+      </c>
+      <c r="G43" s="2">
+        <v>7.2329039999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>7.2</v>
+      </c>
+      <c r="C44">
+        <v>7.3</v>
+      </c>
+      <c r="D44">
+        <v>10.89</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>25</v>
+      </c>
+      <c r="G44" s="2">
+        <v>6.0466159999999993</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>7.2</v>
+      </c>
+      <c r="C45">
+        <v>7.3</v>
+      </c>
+      <c r="D45">
+        <v>13.29</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>25</v>
+      </c>
+      <c r="G45" s="2">
+        <v>5.5426799999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>7.2</v>
+      </c>
+      <c r="C46">
+        <v>7.3</v>
+      </c>
+      <c r="D46">
+        <v>15.03</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>25</v>
+      </c>
+      <c r="G46" s="2">
+        <v>4.7954399999999984</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>6.2</v>
+      </c>
+      <c r="B47">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C47">
+        <v>10.3</v>
+      </c>
+      <c r="D47">
+        <v>20.8</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>15</v>
+      </c>
+      <c r="G47" s="2">
+        <v>5.4980640000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>8.6</v>
+      </c>
+      <c r="C48">
+        <v>13.5</v>
+      </c>
+      <c r="D48">
+        <v>25.66</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>15</v>
+      </c>
+      <c r="G48" s="2">
+        <v>3.7291679999999992</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C49">
+        <v>16.8</v>
+      </c>
+      <c r="D49">
+        <v>26.8</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>15</v>
+      </c>
+      <c r="G49" s="2">
+        <v>3.3135520000000009</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>7.6</v>
+      </c>
+      <c r="B50">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C50">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D50">
+        <v>14.6</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <v>15</v>
+      </c>
+      <c r="G50" s="2">
+        <v>3.7972999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C51">
+        <v>14.1</v>
+      </c>
+      <c r="D51">
+        <v>24.51</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>15</v>
+      </c>
+      <c r="G51" s="2">
+        <v>2.8749599999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>7.2</v>
+      </c>
+      <c r="D52">
+        <v>7.01</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>21.2</v>
+      </c>
+      <c r="G52" s="2">
+        <v>4.6147200000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>7.2</v>
+      </c>
+      <c r="D53">
+        <v>7.01</v>
+      </c>
+      <c r="E53">
+        <v>1.5</v>
+      </c>
+      <c r="F53">
+        <v>14</v>
+      </c>
+      <c r="G53" s="2">
+        <v>6.8754840000000019</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>7.2</v>
+      </c>
+      <c r="D54">
+        <v>7.01</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>11</v>
+      </c>
+      <c r="G54" s="2">
+        <v>5.5853199999999994</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>7.2</v>
+      </c>
+      <c r="D55">
+        <v>7.01</v>
+      </c>
+      <c r="E55">
+        <v>2.5</v>
+      </c>
+      <c r="F55">
+        <v>9</v>
+      </c>
+      <c r="G55" s="2">
+        <v>5.5833200000000005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>5</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>7.2</v>
+      </c>
+      <c r="D56">
+        <v>7.01</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <v>6.5</v>
+      </c>
+      <c r="G56" s="2">
+        <v>3.2918600000000011</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>5</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>7.2</v>
+      </c>
+      <c r="D57">
+        <v>7.25</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>20</v>
+      </c>
+      <c r="G57" s="2">
+        <v>7.6384319999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>7.8</v>
+      </c>
+      <c r="C58">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D58">
+        <v>11.2</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>20</v>
+      </c>
+      <c r="G58" s="2">
+        <v>7.0166559999999993</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>5.9</v>
+      </c>
+      <c r="B59">
+        <v>8.4</v>
+      </c>
+      <c r="C59">
+        <v>11.6</v>
+      </c>
+      <c r="D59">
+        <v>21.6</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>20</v>
+      </c>
+      <c r="G59" s="2">
+        <v>3.3022639999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>5.9</v>
+      </c>
+      <c r="B60">
+        <v>8.9</v>
+      </c>
+      <c r="C60">
+        <v>12.9</v>
+      </c>
+      <c r="D60">
+        <v>26</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>20</v>
+      </c>
+      <c r="G60" s="2">
+        <v>3.20024</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>6.2</v>
+      </c>
+      <c r="B61">
+        <v>8.9</v>
+      </c>
+      <c r="C61">
+        <v>14.9</v>
+      </c>
+      <c r="D61">
+        <v>30.7</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>20</v>
+      </c>
+      <c r="G61" s="2">
+        <v>2.631872</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="B62">
+        <v>7.5</v>
+      </c>
+      <c r="C62">
+        <v>10.5</v>
+      </c>
+      <c r="D62">
+        <v>19.05</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>10.5</v>
+      </c>
+      <c r="G62" s="2">
+        <v>6.009792</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>7.7</v>
+      </c>
+      <c r="C63">
+        <v>12</v>
+      </c>
+      <c r="D63">
+        <v>22.21</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>10.5</v>
+      </c>
+      <c r="G63" s="2">
+        <v>5.1295039999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C64">
+        <v>13.5</v>
+      </c>
+      <c r="D64">
+        <v>24.56</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>10.5</v>
+      </c>
+      <c r="G64" s="2">
+        <v>5.2422160000000009</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>6</v>
+      </c>
+      <c r="B65">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C65">
+        <v>15</v>
+      </c>
+      <c r="D65">
+        <v>26.82</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>10.5</v>
+      </c>
+      <c r="G65" s="2">
+        <v>6.8220000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>6</v>
+      </c>
+      <c r="B66">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C66">
+        <v>16.5</v>
+      </c>
+      <c r="D66">
+        <v>29.42</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>10.5</v>
+      </c>
+      <c r="G66" s="2">
+        <v>4.8366240000000005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>3.5</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>4.5</v>
+      </c>
+      <c r="D67">
+        <v>3.03</v>
+      </c>
+      <c r="E67">
+        <v>1.5</v>
+      </c>
+      <c r="F67">
+        <v>33.561944901923503</v>
+      </c>
+      <c r="G67" s="2">
+        <v>5.437619999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <v>7.2</v>
+      </c>
+      <c r="C68">
+        <v>7.1</v>
+      </c>
+      <c r="D68">
+        <v>6.94</v>
+      </c>
+      <c r="E68">
+        <v>1.5</v>
+      </c>
+      <c r="F68">
+        <v>19.424777960769401</v>
+      </c>
+      <c r="G68" s="2">
+        <v>4.0640600000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>6.1</v>
+      </c>
+      <c r="B69">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C69">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D69">
+        <v>19.7</v>
+      </c>
+      <c r="E69">
+        <v>1.5</v>
+      </c>
+      <c r="F69">
+        <v>9.0575222039230692</v>
+      </c>
+      <c r="G69" s="2">
+        <v>2.5410839999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>6</v>
+      </c>
+      <c r="B70">
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <v>13.5</v>
+      </c>
+      <c r="D70">
+        <v>25.7</v>
+      </c>
+      <c r="E70">
+        <v>1.5</v>
+      </c>
+      <c r="F70">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2">
+        <v>1.2921839999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>4.5</v>
+      </c>
+      <c r="B71">
+        <v>8.5</v>
+      </c>
+      <c r="C71">
+        <v>17</v>
+      </c>
+      <c r="D71">
+        <v>32.1</v>
+      </c>
+      <c r="E71">
+        <v>1.5</v>
+      </c>
+      <c r="F71">
+        <v>24.137166941154099</v>
+      </c>
+      <c r="G71" s="2">
+        <v>2.3711999999999995</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>5.2</v>
+      </c>
+      <c r="B72">
+        <v>7.6</v>
+      </c>
+      <c r="C72">
+        <v>9.25</v>
+      </c>
+      <c r="D72">
+        <v>11.25</v>
+      </c>
+      <c r="E72">
+        <v>1.5</v>
+      </c>
+      <c r="F72">
+        <v>30</v>
+      </c>
+      <c r="G72" s="2">
+        <v>5.1833599999999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>6.2</v>
+      </c>
+      <c r="B73">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C73">
+        <v>9.75</v>
+      </c>
+      <c r="D73">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="E73">
+        <v>1.5</v>
+      </c>
+      <c r="F73">
+        <v>30</v>
+      </c>
+      <c r="G73" s="2">
+        <v>5.0556800000000006</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>5.9</v>
+      </c>
+      <c r="B74">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C74">
+        <v>11.7</v>
+      </c>
+      <c r="D74">
+        <v>21.74</v>
+      </c>
+      <c r="E74">
+        <v>1.5</v>
+      </c>
+      <c r="F74">
+        <v>30</v>
+      </c>
+      <c r="G74" s="2">
+        <v>4.3946639999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>6</v>
+      </c>
+      <c r="B75">
+        <v>9.1</v>
+      </c>
+      <c r="C75">
+        <v>13.65</v>
+      </c>
+      <c r="D75">
+        <v>25.71</v>
+      </c>
+      <c r="E75">
+        <v>1.5</v>
+      </c>
+      <c r="F75">
+        <v>30</v>
+      </c>
+      <c r="G75" s="2">
+        <v>4.4842079999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>6</v>
+      </c>
+      <c r="B76">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C76">
+        <v>14.85</v>
+      </c>
+      <c r="D76">
+        <v>30.09</v>
+      </c>
+      <c r="E76">
+        <v>1.5</v>
+      </c>
+      <c r="F76">
+        <v>30</v>
+      </c>
+      <c r="G76" s="2">
+        <v>4.8959640000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>3.5</v>
+      </c>
+      <c r="B77">
+        <v>4.7</v>
+      </c>
+      <c r="C77">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D77">
+        <v>3.09</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>15</v>
+      </c>
+      <c r="G77" s="2">
+        <v>5.1484680000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>5</v>
+      </c>
+      <c r="B78">
+        <v>7.3</v>
+      </c>
+      <c r="C78">
+        <v>7.2</v>
+      </c>
+      <c r="D78">
+        <v>7.19</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>15</v>
+      </c>
+      <c r="G78" s="2">
+        <v>4.5284800000000009</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>5.2</v>
+      </c>
+      <c r="B79">
+        <v>7.4</v>
+      </c>
+      <c r="C79">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D79">
+        <v>11.24</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>15</v>
+      </c>
+      <c r="G79" s="2">
+        <v>3.7910200000000005</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>5.9</v>
+      </c>
+      <c r="B80">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C80">
+        <v>11.7</v>
+      </c>
+      <c r="D80">
+        <v>21.6</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>15</v>
+      </c>
+      <c r="G80" s="2">
+        <v>1.9055679999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>6.1</v>
+      </c>
+      <c r="B81">
+        <v>8.9</v>
+      </c>
+      <c r="C81">
+        <v>17.2</v>
+      </c>
+      <c r="D81">
+        <v>32.090000000000003</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>15</v>
+      </c>
+      <c r="G81" s="2">
+        <v>1.2797799999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>6.1</v>
+      </c>
+      <c r="B82">
+        <v>8.9</v>
+      </c>
+      <c r="C82">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="D82">
+        <v>32.5</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82">
+        <v>41</v>
+      </c>
+      <c r="G82" s="2">
+        <v>6.4089999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>6</v>
+      </c>
+      <c r="B83">
+        <v>9</v>
+      </c>
+      <c r="C83">
+        <v>13.6</v>
+      </c>
+      <c r="D83">
+        <v>25.82</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>41</v>
+      </c>
+      <c r="G83" s="2">
+        <v>7.644560000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>6.2</v>
+      </c>
+      <c r="B84">
+        <v>8.9</v>
+      </c>
+      <c r="C84">
+        <v>10.75</v>
+      </c>
+      <c r="D84">
+        <v>20.9</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>42</v>
+      </c>
+      <c r="G84" s="2">
+        <v>8.6277120000000007</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>5</v>
+      </c>
+      <c r="B85">
+        <v>7.1</v>
+      </c>
+      <c r="C85">
+        <v>7.15</v>
+      </c>
+      <c r="D85">
+        <v>7.32</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>44</v>
+      </c>
+      <c r="G85" s="2">
+        <v>7.9934400000000005</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>3.5</v>
+      </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D86">
+        <v>3.09</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>44</v>
+      </c>
+      <c r="G86" s="2">
+        <v>7.7725560000000007</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>3.5</v>
+      </c>
+      <c r="B87">
+        <v>4.8</v>
+      </c>
+      <c r="C87">
+        <v>4.5</v>
+      </c>
+      <c r="D87">
+        <v>3.11</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2">
+        <v>7.6293600000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B88">
+        <v>6.8</v>
+      </c>
+      <c r="C88">
+        <v>7.25</v>
+      </c>
+      <c r="D88">
+        <v>7.31</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2">
+        <v>4.4361919999999992</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B89">
+        <v>7.3</v>
+      </c>
+      <c r="C89">
+        <v>9.25</v>
+      </c>
+      <c r="D89">
+        <v>11.13</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2">
+        <v>2.7108200000000005</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>5.8</v>
+      </c>
+      <c r="B90">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C90">
+        <v>10.75</v>
+      </c>
+      <c r="D90">
+        <v>20.82</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2">
+        <v>1.8832799999999994</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>6.1</v>
+      </c>
+      <c r="B91">
+        <v>8.6</v>
+      </c>
+      <c r="C91">
+        <v>13.5</v>
+      </c>
+      <c r="D91">
+        <v>25.84</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2">
+        <v>2.1235200000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B92">
+        <v>12.4</v>
+      </c>
+      <c r="C92">
+        <v>5.8</v>
+      </c>
+      <c r="D92">
+        <v>17.21</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92">
+        <v>30.9</v>
+      </c>
+      <c r="G92" s="2">
+        <v>3.4763519999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>5.9</v>
+      </c>
+      <c r="B93">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C93">
+        <v>11.5</v>
+      </c>
+      <c r="D93">
+        <v>21.47</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>30.9</v>
+      </c>
+      <c r="G93" s="2">
+        <v>5.2376480000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>6.1</v>
+      </c>
+      <c r="B94">
+        <v>9</v>
+      </c>
+      <c r="C94">
+        <v>10.7</v>
+      </c>
+      <c r="D94">
+        <v>20.8</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94">
+        <v>30.9</v>
+      </c>
+      <c r="G94" s="2">
+        <v>4.4606319999999995</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>5</v>
+      </c>
+      <c r="B95">
+        <v>7.4</v>
+      </c>
+      <c r="C95">
+        <v>7.1</v>
+      </c>
+      <c r="D95">
+        <v>7.03</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95">
+        <v>30.9</v>
+      </c>
+      <c r="G95" s="2">
+        <v>8.2579200000000021</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>3.5</v>
+      </c>
+      <c r="B96">
+        <v>4.8</v>
+      </c>
+      <c r="C96">
+        <v>4.3</v>
+      </c>
+      <c r="D96">
+        <v>3.1</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96">
+        <v>30.9</v>
+      </c>
+      <c r="G96" s="2">
+        <v>7.0470399999999991</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>3.6</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>4.5</v>
+      </c>
+      <c r="D97">
+        <v>3.08</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+      <c r="F97">
+        <v>15</v>
+      </c>
+      <c r="G97" s="2">
+        <v>5.5702039999999995</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B98">
+        <v>7.2</v>
+      </c>
+      <c r="C98">
+        <v>7.1</v>
+      </c>
+      <c r="D98">
+        <v>7.17</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+      <c r="F98">
+        <v>15</v>
+      </c>
+      <c r="G98" s="2">
+        <v>7.6567200000000009</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>6.2</v>
+      </c>
+      <c r="B99">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C99">
+        <v>9.6</v>
+      </c>
+      <c r="D99">
+        <v>19.75</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+      <c r="F99">
+        <v>15</v>
+      </c>
+      <c r="G99" s="2">
+        <v>7.4726400000000011</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>6.2</v>
+      </c>
+      <c r="B100">
+        <v>8.9</v>
+      </c>
+      <c r="C100">
+        <v>10.6</v>
+      </c>
+      <c r="D100">
+        <v>20.93</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>15</v>
+      </c>
+      <c r="G100" s="2">
+        <v>6.8274600000000003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>6</v>
+      </c>
+      <c r="B101">
+        <v>9</v>
+      </c>
+      <c r="C101">
+        <v>17.2</v>
+      </c>
+      <c r="D101">
+        <v>32.18</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+      <c r="F101">
+        <v>15</v>
+      </c>
+      <c r="G101" s="2">
+        <v>9.6177880000000009</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>3.6</v>
+      </c>
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>4.5</v>
+      </c>
+      <c r="D102">
+        <v>3.15</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="F102">
+        <v>30</v>
+      </c>
+      <c r="G102" s="2">
+        <v>8.3290600000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>5</v>
+      </c>
+      <c r="B103">
+        <v>7.2</v>
+      </c>
+      <c r="C103">
+        <v>7.2</v>
+      </c>
+      <c r="D103">
+        <v>6.95</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+      <c r="F103">
+        <v>30</v>
+      </c>
+      <c r="G103" s="2">
+        <v>8.5821760000000022</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B104">
+        <v>7.7</v>
+      </c>
+      <c r="C104">
+        <v>9.4</v>
+      </c>
+      <c r="D104">
+        <v>15.03</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+      <c r="F104">
+        <v>30</v>
+      </c>
+      <c r="G104" s="2">
+        <v>9.8634879999999985</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>5.9</v>
+      </c>
+      <c r="B105">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C105">
+        <v>11.5</v>
+      </c>
+      <c r="D105">
+        <v>22.78</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+      <c r="F105">
+        <v>30</v>
+      </c>
+      <c r="G105" s="2">
+        <v>8.4426880000000022</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>6</v>
+      </c>
+      <c r="B106">
+        <v>8.9</v>
+      </c>
+      <c r="C106">
+        <v>17</v>
+      </c>
+      <c r="D106">
+        <v>32.43</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
+      <c r="F106">
+        <v>30</v>
+      </c>
+      <c r="G106" s="2">
+        <v>7.8825600000000007</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B107">
+        <v>6.5</v>
+      </c>
+      <c r="C107">
+        <v>5</v>
+      </c>
+      <c r="D107">
+        <v>8.51</v>
+      </c>
+      <c r="E107">
+        <v>3.5</v>
+      </c>
+      <c r="F107">
+        <v>37</v>
+      </c>
+      <c r="G107" s="2">
+        <v>7.5734400000000006</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B108">
+        <v>6.6</v>
+      </c>
+      <c r="C108">
+        <v>6</v>
+      </c>
+      <c r="D108">
+        <v>9.27</v>
+      </c>
+      <c r="E108">
+        <v>3.5</v>
+      </c>
+      <c r="F108">
+        <v>37</v>
+      </c>
+      <c r="G108" s="2">
+        <v>6.9483000000000006</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B109">
+        <v>7</v>
+      </c>
+      <c r="C109">
+        <v>7</v>
+      </c>
+      <c r="D109">
+        <v>11.19</v>
+      </c>
+      <c r="E109">
+        <v>3.5</v>
+      </c>
+      <c r="F109">
+        <v>37</v>
+      </c>
+      <c r="G109" s="2">
+        <v>8.7359519999999993</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B110">
+        <v>7.3</v>
+      </c>
+      <c r="C110">
+        <v>8</v>
+      </c>
+      <c r="D110">
+        <v>11.05</v>
+      </c>
+      <c r="E110">
+        <v>3.5</v>
+      </c>
+      <c r="F110">
+        <v>37</v>
+      </c>
+      <c r="G110" s="2">
+        <v>7.2398480000000012</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B111">
+        <v>7.5</v>
+      </c>
+      <c r="C111">
+        <v>9</v>
+      </c>
+      <c r="D111">
+        <v>13.93</v>
+      </c>
+      <c r="E111">
+        <v>3.5</v>
+      </c>
+      <c r="F111">
+        <v>37</v>
+      </c>
+      <c r="G111" s="2">
+        <v>7.5409319999999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>3.5</v>
+      </c>
+      <c r="B112">
+        <v>4.8</v>
+      </c>
+      <c r="C112">
+        <v>4.5</v>
+      </c>
+      <c r="D112">
+        <v>3.12</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>25</v>
+      </c>
+      <c r="G112" s="2">
+        <v>5.1681599999999994</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>5</v>
+      </c>
+      <c r="B113">
+        <v>7</v>
+      </c>
+      <c r="C113">
+        <v>7.2</v>
+      </c>
+      <c r="D113">
+        <v>7.17</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>25</v>
+      </c>
+      <c r="G113" s="2">
+        <v>6.1603440000000003</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>5.9</v>
+      </c>
+      <c r="B114">
+        <v>8.5</v>
+      </c>
+      <c r="C114">
+        <v>11.7</v>
+      </c>
+      <c r="D114">
+        <v>21.8</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>25</v>
+      </c>
+      <c r="G114" s="2">
+        <v>2.0252320000000004</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>6</v>
+      </c>
+      <c r="B115">
+        <v>9</v>
+      </c>
+      <c r="C115">
+        <v>10.8</v>
+      </c>
+      <c r="D115">
+        <v>20.88</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>25</v>
+      </c>
+      <c r="G115" s="2">
+        <v>1.7245919999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B116">
+        <v>12</v>
+      </c>
+      <c r="C116">
+        <v>5.5</v>
+      </c>
+      <c r="D116">
+        <v>17.18</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>25</v>
+      </c>
+      <c r="G116" s="2">
+        <v>3.1681999999999997</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B117">
+        <v>7.3</v>
+      </c>
+      <c r="C117">
+        <v>7.2</v>
+      </c>
+      <c r="D117">
+        <v>7.1</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+      <c r="F117">
+        <v>30</v>
+      </c>
+      <c r="G117" s="2">
+        <v>7.8553079999999982</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B118">
+        <v>7.8</v>
+      </c>
+      <c r="C118">
+        <v>9.5</v>
+      </c>
+      <c r="D118">
+        <v>15.1</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="F118">
+        <v>30</v>
+      </c>
+      <c r="G118" s="2">
+        <v>7.0763439999999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>5.8</v>
+      </c>
+      <c r="B119">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C119">
+        <v>11.6</v>
+      </c>
+      <c r="D119">
+        <v>21.6</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119">
+        <v>30</v>
+      </c>
+      <c r="G119" s="2">
+        <v>6.6811199999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>5.8</v>
+      </c>
+      <c r="B120">
+        <v>8.9</v>
+      </c>
+      <c r="C120">
+        <v>13.6</v>
+      </c>
+      <c r="D120">
+        <v>25.85</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+      <c r="F120">
+        <v>30</v>
+      </c>
+      <c r="G120" s="2">
+        <v>4.7998719999999997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>5.9</v>
+      </c>
+      <c r="B121">
+        <v>8.9</v>
+      </c>
+      <c r="C121">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="D121">
+        <v>32.25</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121">
+        <v>30</v>
+      </c>
+      <c r="G121" s="2">
+        <v>4.4833759999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>6.2</v>
+      </c>
+      <c r="B122">
+        <v>9</v>
+      </c>
+      <c r="C122">
+        <v>10.8</v>
+      </c>
+      <c r="D122">
+        <v>23.01</v>
+      </c>
+      <c r="F122">
+        <v>8</v>
+      </c>
+      <c r="G122" s="2">
+        <v>10.896591999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>3.6</v>
+      </c>
+      <c r="B123">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C123">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D123">
+        <v>9.24</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="G123" s="2">
+        <v>11.073119999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>5</v>
+      </c>
+      <c r="B124">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C124">
+        <v>21.5</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+      <c r="F124">
+        <v>31</v>
+      </c>
+      <c r="G124" s="2">
+        <v>12.74592</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>3.6</v>
+      </c>
+      <c r="B125">
+        <v>5.01</v>
+      </c>
+      <c r="C125">
+        <v>4.7</v>
+      </c>
+      <c r="D125">
+        <v>4.75</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+      <c r="G125" s="2">
+        <v>9.1479999999999997</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B126">
+        <v>7.7</v>
+      </c>
+      <c r="C126">
+        <v>9.4</v>
+      </c>
+      <c r="D126">
+        <v>15.08</v>
+      </c>
+      <c r="E126">
+        <v>2.5</v>
+      </c>
+      <c r="G126" s="2">
+        <v>8.1254600000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F126"/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E127" sqref="E127"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1117,10 +4037,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
         <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -4605,7 +7525,7 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B122">
         <v>6.2</v>
@@ -4631,7 +7551,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B123">
         <v>3.6</v>
@@ -4657,7 +7577,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B124">
         <v>5</v>
@@ -4683,7 +7603,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B125">
         <v>3.6</v>
@@ -4709,7 +7629,7 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B126">
         <v>5.0999999999999996</v>
@@ -4734,12 +7654,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I126"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q121"/>
   <sheetViews>
